--- a/docs/dataset_sample.xlsx
+++ b/docs/dataset_sample.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="85">
   <si>
     <t>author</t>
   </si>
@@ -61,7 +61,37 @@
     <t xml:space="preserve"> Dwi Purwanto</t>
   </si>
   <si>
-    <t>Pengelompokkan Data Penyakit Berdasarkan Usia Menggunakan Metode Fuzzy C-Means</t>
+    <t xml:space="preserve"> Anang Marfianto</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Taufik Mufti Haryadi</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Adi Romansa</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Fiqriany Karepesina</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Nanang Yuniarto</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Shaufi Yuliani Putri</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Nurul Hudha Setyati</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Aprial Andi Purnama</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Hariansyah</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Indri Dwi Lestari</t>
+  </si>
+  <si>
+    <t>Pengelompokkan Data Penyakit Berdasarkan Usia Menggunakan Metode Fuzzy CMeans</t>
   </si>
   <si>
     <t>Text Mining Menggunakan Metode Single Linkage Dengan Manhattan Distance Similarity Untuk Pengelompokkan Trend Topik Kerja Praktik</t>
@@ -76,19 +106,49 @@
     <t>Pengembangan Analisis Sentimen Pada Sistem Indeks Kinerja Dosen Menggunakan Metode Naive Bayes</t>
   </si>
   <si>
-    <t>Penerapan Text Mining Pengelompokkan Judul Kerja Praktek Menggunakan Metode K-Means Clustering Dengan Cosineâ  Similarity</t>
-  </si>
-  <si>
-    <t>Pemanfaatan Text Mining Untuk Mengklasifikasi Sms Spam Porno Dengan Algoritma C4.5</t>
-  </si>
-  <si>
-    <t>Implementasi Text Mining Pengelompokkan Judul Penelitian Dosen Menggunakan Metode K-Medoids Dengan Cosine Similarity</t>
-  </si>
-  <si>
-    <t>Aplikasi Web Dengan Text Mining Untuk Pengelompokkan Judul Jurnal Publikasi Dengan Metode Snn ( Shared Nearest Neighbor)</t>
-  </si>
-  <si>
-    <t>Analisis Sentimen Komentar Tulisan Blog Menggunakan Metode K-Nearest Neighbour</t>
+    <t>Penerapan Text Mining Pengelompokkan Judul Kerja Praktek Menggunakan Metode KMeans Clustering Dengan Cosine Similarity</t>
+  </si>
+  <si>
+    <t>Pemanfaatan Text Mining Untuk Mengklasifikasi Sms Spam Porno Dengan Algoritma C45</t>
+  </si>
+  <si>
+    <t>Implementasi Text Mining Pengelompokkan Judul Penelitian Dosen Menggunakan Metode KMedoids Dengan Cosine Similarity</t>
+  </si>
+  <si>
+    <t>Aplikasi Web Dengan Text Mining Untuk Pengelompokkan Judul Jurnal Publikasi Dengan Metode Snn  Shared Nearest Neighbor</t>
+  </si>
+  <si>
+    <t>Analisis Sentimen Komentar Tulisan Blog Menggunakan Metode KNearest Neighbour</t>
+  </si>
+  <si>
+    <t>Analisis Forensik Whats App Mesengger Berbasis Android Menggunakan Metode Text Mining</t>
+  </si>
+  <si>
+    <t>Rancang Bangun Data Mining Untuk Mencari Pola Asosiasi Data Tracer Studi Dengan Metode Foldarm Fast Online Dynamic Association Rule Mining</t>
+  </si>
+  <si>
+    <t>Penerapan Data Mining Dengan Algoritma Apriori Untuk Mendapatkan Pola Penjualan Seblak Cuz</t>
+  </si>
+  <si>
+    <t>Penerapan Data Mining Untuk Penentuan Penerima Beasiswa Dengan Metode KNearest Neighbor KNn Pada Bimawa Uad</t>
+  </si>
+  <si>
+    <t>Penerapan Data Mining Untuk Menentukan Kelayakan Kredit Perumahan Menggunakan Metode C45 Di Pt Pmpp</t>
+  </si>
+  <si>
+    <t>Penerapan Data Mining Untuk Melakukan Prediksi Diagnosis Breast Cancer Menggunakan Metode Naive Bayes</t>
+  </si>
+  <si>
+    <t>Penerapan Data Mining Untuk Klasifikasi Berat Bayi Lahir Rendah Dengan Metode C45 Studi Kasus  Rsud Panembahan Senopati</t>
+  </si>
+  <si>
+    <t>Penerapan Data Mining Untuk Clustering Status Gizi Bayi Dengan Metode KMeans</t>
+  </si>
+  <si>
+    <t>Penerapan Data Mining Untuk Analisis Pola Asosiasi Dengan Metode Apriori Pada Suku Cadang Motor Studi Kasus Pada Bengkel Motor Yogyakarta</t>
+  </si>
+  <si>
+    <t>Penerapan Data Mining Menggunakan Metode Naive Bayes Untuk Menentukan Jenis Abortus Di Rsud Duta Mulya</t>
   </si>
   <si>
     <t>http://digilib.uad.ac.id/penelitian/Penelitian/detail/82909/pengelompokkan-data-penyakit-berdasarkan-usia-menggunakan-metode-fuzzy-cmeans</t>
@@ -121,13 +181,43 @@
     <t>http://digilib.uad.ac.id/penelitian/Penelitian/detail/105578/analisis-sentimen-komentar-tulisan-blog-menggunakan-metode-knearest-neighbour</t>
   </si>
   <si>
+    <t>http://digilib.uad.ac.id/penelitian/Penelitian/detail/100716/analisis-forensik-whats-app-mesengger-berbasis-android-menggunakan-metode-text-mining</t>
+  </si>
+  <si>
+    <t>http://digilib.uad.ac.id/penelitian/Penelitian/detail/88834/rancang-bangun-data-mining-untuk-mencari-pola-asosiasi-data-tracer-studi-dengan-metode-foldarm-fast-online-dynamic-association-rule-mining</t>
+  </si>
+  <si>
+    <t>http://digilib.uad.ac.id/penelitian/Penelitian/detail/106455/penerapan-data-mining-dengan-algoritma-apriori-untuk-mendapatkan-pola-penjualan-seblak-cuz</t>
+  </si>
+  <si>
+    <t>http://digilib.uad.ac.id/penelitian/Penelitian/detail/97833/penerapan-data-mining-untuk-penentuan-penerima-beasiswa-dengan-metode-knearest-neighbor-knn-pada-bimawa-uad</t>
+  </si>
+  <si>
+    <t>http://digilib.uad.ac.id/penelitian/Penelitian/detail/102723/penerapan-data-mining-untuk-menentukan-kelayakan-kredit-perumahan-menggunakan-metode-c45-di-pt-pmpp</t>
+  </si>
+  <si>
+    <t>http://digilib.uad.ac.id/penelitian/Penelitian/detail/106265/penerapan-data-mining-untuk-melakukan-prediksi-diagnosis-breast-cancer-menggunakan-metode-naive-bayes</t>
+  </si>
+  <si>
+    <t>http://digilib.uad.ac.id/penelitian/Penelitian/detail/82662/penerapan-data-mining-untuk-klasifikasi-berat-bayi-lahir-rendah-dengan-metode-c45-studi-kasus-rsud-panembahan-senopati</t>
+  </si>
+  <si>
+    <t>http://digilib.uad.ac.id/penelitian/Penelitian/detail/101753/penerapan-data-mining-untuk-clustering-status-gizi-bayi-dengan-metode-kmeans</t>
+  </si>
+  <si>
+    <t>http://digilib.uad.ac.id/penelitian/Penelitian/detail/97235/penerapan-data-mining-untuk-analisis-pola-asosiasi-dengan-metode-apriori-pada-suku-cadang-motor-studi-kasus-pada-bengkel-motor-yogyakarta</t>
+  </si>
+  <si>
+    <t>http://digilib.uad.ac.id/penelitian/Penelitian/detail/87766/penerapan-data-mining-menggunakan-metode-naive-bayes-untuk-menentukan-jenis-abortus-di-rsud-duta-mulya</t>
+  </si>
+  <si>
     <t>pengelompokkan data penyakit berdasarkan usia menggunakan metode fuzzy cmeans</t>
   </si>
   <si>
-    <t>text mining menggunakan metode single linkage manhattan distance similarity pengelompokkan trend topik kerja praktik</t>
-  </si>
-  <si>
-    <t>text mining menggunakan metode snn evclidean distance mengelompokan email</t>
+    <t>text mining menggunakan metode single linkage manhattan distance similarity untuk pengelompokkan trend topik kerja praktik</t>
+  </si>
+  <si>
+    <t>text mining menggunakan metode snn evclidean distance untuk mengelompokan email</t>
   </si>
   <si>
     <t>text mining klasifikasi judul skripsi teknik industri universitas ahmad dahlan berdasarkan bidang minat menggunakan metode naive bayes</t>
@@ -136,19 +226,49 @@
     <t>pengembangan analisis sentimen sistem indeks kinerja dosen menggunakan metode naive bayes</t>
   </si>
   <si>
-    <t>penerapan text mining pengelompokkan judul kerja praktek menggunakan metode kmeans clustering cosineâ  similarity</t>
-  </si>
-  <si>
-    <t>pemanfaatan text mining mengklasifikasi sms spam porno algoritma c</t>
+    <t>penerapan text mining pengelompokkan judul kerja praktek menggunakan metode kmeans clustering cosine similarity</t>
+  </si>
+  <si>
+    <t>pemanfaatan text mining untuk mengklasifikasi sms spam porno algoritma c</t>
   </si>
   <si>
     <t>implementasi text mining pengelompokkan judul penelitian dosen menggunakan metode kmedoids cosine similarity</t>
   </si>
   <si>
-    <t>aplikasi web text mining pengelompokkan judul jurnal publikasi metode snn  shared nearest neighbor</t>
+    <t>aplikasi web text mining untuk pengelompokkan judul jurnal publikasi metode snn  shared nearest neighbor</t>
   </si>
   <si>
     <t>analisis sentimen komentar tulisan blog menggunakan metode knearest neighbour</t>
+  </si>
+  <si>
+    <t>analisis forensik whats app mesengger berbasis android menggunakan metode text mining</t>
+  </si>
+  <si>
+    <t>rancang bangun data mining untuk mencari pola asosiasi data tracer studi metode foldarm fast online dynamic association rule mining</t>
+  </si>
+  <si>
+    <t>penerapan data mining algoritma apriori untuk mendapatkan pola penjualan seblak cuz</t>
+  </si>
+  <si>
+    <t>penerapan data mining untuk penentuan penerima beasiswa metode knearest neighbor knn bimawa uad</t>
+  </si>
+  <si>
+    <t>penerapan data mining untuk menentukan kelayakan kredit perumahan menggunakan metode c pt pmpp</t>
+  </si>
+  <si>
+    <t>penerapan data mining untuk melakukan prediksi diagnosis breast cancer menggunakan metode naive bayes</t>
+  </si>
+  <si>
+    <t>penerapan data mining untuk klasifikasi berat bayi lahir rendah metode c studi kasus  rsud panembahan senopati</t>
+  </si>
+  <si>
+    <t>penerapan data mining untuk clustering status gizi bayi metode kmeans</t>
+  </si>
+  <si>
+    <t>penerapan data mining untuk analisis pola asosiasi metode apriori suku cadang motor studi kasus bengkel motor yogyakarta</t>
+  </si>
+  <si>
+    <t>penerapan data mining menggunakan metode naive bayes untuk menentukan jenis abortus rsud duta mulya</t>
   </si>
 </sst>
 </file>
@@ -519,7 +639,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E11"/>
+  <dimension ref="A1:E21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -547,16 +667,16 @@
         <v>5</v>
       </c>
       <c r="B2" t="s">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>25</v>
+        <v>45</v>
       </c>
       <c r="D2">
         <v>2016</v>
       </c>
       <c r="E2" t="s">
-        <v>35</v>
+        <v>65</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -564,16 +684,16 @@
         <v>6</v>
       </c>
       <c r="B3" t="s">
-        <v>16</v>
+        <v>26</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>26</v>
+        <v>46</v>
       </c>
       <c r="D3">
         <v>2018</v>
       </c>
       <c r="E3" t="s">
-        <v>36</v>
+        <v>66</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -581,16 +701,16 @@
         <v>7</v>
       </c>
       <c r="B4" t="s">
-        <v>17</v>
+        <v>27</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>27</v>
+        <v>47</v>
       </c>
       <c r="D4">
         <v>2019</v>
       </c>
       <c r="E4" t="s">
-        <v>37</v>
+        <v>67</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -598,16 +718,16 @@
         <v>8</v>
       </c>
       <c r="B5" t="s">
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>28</v>
+        <v>48</v>
       </c>
       <c r="D5">
         <v>2018</v>
       </c>
       <c r="E5" t="s">
-        <v>38</v>
+        <v>68</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -615,16 +735,16 @@
         <v>9</v>
       </c>
       <c r="B6" t="s">
-        <v>19</v>
+        <v>29</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>29</v>
+        <v>49</v>
       </c>
       <c r="D6">
         <v>2018</v>
       </c>
       <c r="E6" t="s">
-        <v>39</v>
+        <v>69</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -632,16 +752,16 @@
         <v>10</v>
       </c>
       <c r="B7" t="s">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="D7">
         <v>2017</v>
       </c>
       <c r="E7" t="s">
-        <v>40</v>
+        <v>70</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -649,16 +769,16 @@
         <v>11</v>
       </c>
       <c r="B8" t="s">
-        <v>21</v>
+        <v>31</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>31</v>
+        <v>51</v>
       </c>
       <c r="D8">
         <v>2016</v>
       </c>
       <c r="E8" t="s">
-        <v>41</v>
+        <v>71</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -666,16 +786,16 @@
         <v>12</v>
       </c>
       <c r="B9" t="s">
-        <v>22</v>
+        <v>32</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>32</v>
+        <v>52</v>
       </c>
       <c r="D9">
         <v>2019</v>
       </c>
       <c r="E9" t="s">
-        <v>42</v>
+        <v>72</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -683,16 +803,16 @@
         <v>13</v>
       </c>
       <c r="B10" t="s">
-        <v>23</v>
+        <v>33</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>33</v>
+        <v>53</v>
       </c>
       <c r="D10">
         <v>2016</v>
       </c>
       <c r="E10" t="s">
-        <v>43</v>
+        <v>73</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -700,16 +820,186 @@
         <v>14</v>
       </c>
       <c r="B11" t="s">
-        <v>24</v>
+        <v>34</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>34</v>
+        <v>54</v>
       </c>
       <c r="D11">
         <v>2019</v>
       </c>
       <c r="E11" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5">
+      <c r="A12" t="s">
+        <v>15</v>
+      </c>
+      <c r="B12" t="s">
+        <v>35</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="D12">
+        <v>2018</v>
+      </c>
+      <c r="E12" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5">
+      <c r="A13" t="s">
+        <v>16</v>
+      </c>
+      <c r="B13" t="s">
+        <v>36</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="D13">
+        <v>2017</v>
+      </c>
+      <c r="E13" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5">
+      <c r="A14" t="s">
+        <v>17</v>
+      </c>
+      <c r="B14" t="s">
+        <v>37</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="D14">
+        <v>2019</v>
+      </c>
+      <c r="E14" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5">
+      <c r="A15" t="s">
+        <v>18</v>
+      </c>
+      <c r="B15" t="s">
+        <v>38</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="D15">
+        <v>2017</v>
+      </c>
+      <c r="E15" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5">
+      <c r="A16" t="s">
+        <v>19</v>
+      </c>
+      <c r="B16" t="s">
+        <v>39</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="D16">
+        <v>2018</v>
+      </c>
+      <c r="E16" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5">
+      <c r="A17" t="s">
+        <v>20</v>
+      </c>
+      <c r="B17" t="s">
+        <v>40</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="D17">
+        <v>2019</v>
+      </c>
+      <c r="E17" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5">
+      <c r="A18" t="s">
+        <v>21</v>
+      </c>
+      <c r="B18" t="s">
+        <v>41</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="D18">
+        <v>2016</v>
+      </c>
+      <c r="E18" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5">
+      <c r="A19" t="s">
+        <v>22</v>
+      </c>
+      <c r="B19" t="s">
+        <v>42</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="D19">
+        <v>2018</v>
+      </c>
+      <c r="E19" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5">
+      <c r="A20" t="s">
+        <v>23</v>
+      </c>
+      <c r="B20" t="s">
+        <v>43</v>
+      </c>
+      <c r="C20" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="D20">
+        <v>2017</v>
+      </c>
+      <c r="E20" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5">
+      <c r="A21" t="s">
+        <v>24</v>
+      </c>
+      <c r="B21" t="s">
         <v>44</v>
+      </c>
+      <c r="C21" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="D21">
+        <v>2017</v>
+      </c>
+      <c r="E21" t="s">
+        <v>84</v>
       </c>
     </row>
   </sheetData>
@@ -724,6 +1014,16 @@
     <hyperlink ref="C9" r:id="rId8"/>
     <hyperlink ref="C10" r:id="rId9"/>
     <hyperlink ref="C11" r:id="rId10"/>
+    <hyperlink ref="C12" r:id="rId11"/>
+    <hyperlink ref="C13" r:id="rId12"/>
+    <hyperlink ref="C14" r:id="rId13"/>
+    <hyperlink ref="C15" r:id="rId14"/>
+    <hyperlink ref="C16" r:id="rId15"/>
+    <hyperlink ref="C17" r:id="rId16"/>
+    <hyperlink ref="C18" r:id="rId17"/>
+    <hyperlink ref="C19" r:id="rId18"/>
+    <hyperlink ref="C20" r:id="rId19"/>
+    <hyperlink ref="C21" r:id="rId20"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
